--- a/biology/Virologie/Potyvirus/Potyvirus.xlsx
+++ b/biology/Virologie/Potyvirus/Potyvirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Potyvirus est un genre de virus appartenant à la famille des Potyviridae, qui contient 183 espèces acceptées par l'ICTV. Ce sont des virus à ARN à simple brin de polarité positive (ARNmc), rattachés au groupe IV de la classification Baltimore.
 Ces virus infectent les plantes (phytovirus) et constituent à eux seuls le tiers des virus des plantes recensés. Ils ont une grande importance économique par les dégâts qu'ils provoquent, dégâts  liés notamment à leur mode de transmission. Ce sont des virus naturellement transmis par les pucerons, ce qui limite toute entreprise de lutte ciblée.
 Leur nom, Potyvirus, se réfère à celui de l'espèce-type du genre, le Virus Y de la pomme de terre (Potato virus Y).
-Pour lutter contre les potyvirus, la recherche est centrée sur la sélection de plantes résistantes. Pour cela, le système CRISPR/Cas9 a été utilisé pour créer des concombres chez lesquels les potyvirus ne peuvent pas se développer[2],[3].
+Pour lutter contre les potyvirus, la recherche est centrée sur la sélection de plantes résistantes. Pour cela, le système CRISPR/Cas9 a été utilisé pour créer des concombres chez lesquels les potyvirus ne peuvent pas se développer,.
 </t>
         </is>
       </c>
@@ -514,10 +526,12 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les particules sont des virions non-enveloppés, flexueux, filamenteux, à symétrie hélicoïdale, de 720 à 850 nm de long et 12 à 15 nm de diamètre. Ces virus induisent la formation de corps d'inclusion (en) caractéristiques dans les cellules végétales infectées[4].
-Le génome est un ARN linéaire à simple brin de sens positif, dont la taille varie de 9 000 à 12 000 bases / nucléotides. La plupart des Potyvirus ont un génome non segmenté (monopartite), bien qu'un certain nombre d'espèces soient bipartites[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les particules sont des virions non-enveloppés, flexueux, filamenteux, à symétrie hélicoïdale, de 720 à 850 nm de long et 12 à 15 nm de diamètre. Ces virus induisent la formation de corps d'inclusion (en) caractéristiques dans les cellules végétales infectées.
+Le génome est un ARN linéaire à simple brin de sens positif, dont la taille varie de 9 000 à 12 000 bases / nucléotides. La plupart des Potyvirus ont un génome non segmenté (monopartite), bien qu'un certain nombre d'espèces soient bipartites.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon le rapport 2019 de l'ICTV[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le rapport 2019 de l'ICTV :
 African eggplant mosaic virus
 Algerian watermelon mosaic virus
 Alstroemeria mosaic virus
